--- a/shopizer_Signin_Page_Isha_Agrawal.xlsx
+++ b/shopizer_Signin_Page_Isha_Agrawal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isha_agrawal\Desktop\Persi-Training\Mini Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Mini project\git track\Shopizer\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2995CB-5807-4A8A-A6BA-CB51835BBF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C170684A-FC89-4C5A-A6E5-338B3125FBD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="253" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>Sc_id</t>
   </si>
@@ -124,27 +124,18 @@
     <t>Check if all fields are present and displayed properly</t>
   </si>
   <si>
-    <t>All fields are present and displayed properly</t>
-  </si>
-  <si>
     <t>SC_01_TC_02</t>
   </si>
   <si>
     <t>Check if required fields are marked with red * mark</t>
   </si>
   <si>
-    <t>All required fields are marked with red * mark</t>
-  </si>
-  <si>
     <t>SC_01_TC_03</t>
   </si>
   <si>
     <t>Check if correct labels are displayed over each input field</t>
   </si>
   <si>
-    <t>All labels are present and visible properly</t>
-  </si>
-  <si>
     <t>SC_01_TC_04</t>
   </si>
   <si>
@@ -172,12 +163,6 @@
     <t>SC_01_TC_10</t>
   </si>
   <si>
-    <t>SC_01_TC_11</t>
-  </si>
-  <si>
-    <t>SC_01_TC_12</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -241,15 +226,9 @@
     <t>Check if the Sign in page loads without any pre existing data</t>
   </si>
   <si>
-    <t>Sign in page loads without any pre existing data</t>
-  </si>
-  <si>
     <t>Click on the Email ID field</t>
   </si>
   <si>
-    <t>Text input field changes to password</t>
-  </si>
-  <si>
     <t>Error occurs saying Incorrect username and password</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>Click on sign in button</t>
   </si>
   <si>
-    <t>Login Failed. Username or Password is incorrect.</t>
-  </si>
-  <si>
     <t>Enter Email ID</t>
   </si>
   <si>
@@ -271,9 +247,6 @@
     <t>Password: xyz123</t>
   </si>
   <si>
-    <t>User is logged in and navigated to the user's dashboard</t>
-  </si>
-  <si>
     <t>Click on Sign in button</t>
   </si>
   <si>
@@ -283,39 +256,18 @@
     <t xml:space="preserve">Check if the text entered is displayed </t>
   </si>
   <si>
-    <t>Email ID is correctly displayed</t>
-  </si>
-  <si>
     <t>Enter the Email ID used while creating an account</t>
   </si>
   <si>
     <t>Check if emailID is same as used while creating an account</t>
   </si>
   <si>
-    <t>Email ID Exists</t>
-  </si>
-  <si>
-    <t>Enter the Password used while creating an account</t>
-  </si>
-  <si>
-    <t>Check if the password is same as used while creating an account</t>
-  </si>
-  <si>
-    <t>Password exists</t>
-  </si>
-  <si>
     <t>Check  whether the password is visible in the text field</t>
   </si>
   <si>
-    <t>3.User must be on the Sign inpage of the shopizer</t>
-  </si>
-  <si>
     <t>Check if the Register button is present for the new users</t>
   </si>
   <si>
-    <t>Register Button is present</t>
-  </si>
-  <si>
     <t>Check if the Register button takes the user to the Registeration page</t>
   </si>
   <si>
@@ -331,7 +283,34 @@
     <t>Password field should contain *******</t>
   </si>
   <si>
-    <t>User is Signed in and navigated to the account's Dashboard</t>
+    <t>All fields should be present and displayed properly</t>
+  </si>
+  <si>
+    <t>All required fields must be marked with red * mark</t>
+  </si>
+  <si>
+    <t>All labels should be present and visible properly</t>
+  </si>
+  <si>
+    <t>Sign in page should be loads without any pre existing data</t>
+  </si>
+  <si>
+    <t>Text input field must be switch to password field</t>
+  </si>
+  <si>
+    <t>User should not be logged in and incorrect username or password message should be displayed</t>
+  </si>
+  <si>
+    <t>User must be logged in and navigated to the user's dashboard</t>
+  </si>
+  <si>
+    <t>Email ID should be correctly displayed</t>
+  </si>
+  <si>
+    <t>User must see a messege as 'Email ID Exists'</t>
+  </si>
+  <si>
+    <t>User must be Signed in and navigated to the account's Dashboard</t>
   </si>
 </sst>
 </file>
@@ -906,10 +885,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -931,7 +910,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>24</v>
@@ -942,10 +921,10 @@
       <c r="B5" s="6"/>
       <c r="C5" s="14"/>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -963,7 +942,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -971,7 +950,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="15"/>
       <c r="E8" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -998,7 +977,7 @@
       <c r="C11" s="26"/>
       <c r="D11" s="8"/>
       <c r="E11" s="29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1007,7 +986,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="8"/>
       <c r="E12" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1016,7 +995,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1025,7 +1004,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1034,7 +1013,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
       <c r="E15" s="29" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1043,7 +1022,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
       <c r="E16" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1154,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1225,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>19</v>
@@ -1253,7 +1232,7 @@
       <c r="A4" s="21"/>
       <c r="B4" s="14"/>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1267,7 +1246,7 @@
       <c r="A5" s="22"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1279,7 +1258,7 @@
     </row>
     <row r="6" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>23</v>
@@ -1291,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>21</v>
@@ -1327,7 +1306,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1342,7 +1321,7 @@
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1355,7 +1334,7 @@
     </row>
     <row r="10" spans="1:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>24</v>
@@ -1367,13 +1346,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>21</v>
@@ -1403,7 +1382,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1418,7 +1397,7 @@
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1431,10 +1410,10 @@
     </row>
     <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>14</v>
@@ -1443,13 +1422,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>21</v>
@@ -1482,7 +1461,7 @@
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1500,7 +1479,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1516,7 +1495,7 @@
     </row>
     <row r="18" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>25</v>
@@ -1528,19 +1507,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
@@ -1558,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1571,7 +1550,7 @@
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1586,7 +1565,7 @@
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1599,10 +1578,10 @@
     </row>
     <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>14</v>
@@ -1611,13 +1590,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>21</v>
@@ -1638,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -1651,7 +1630,7 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1666,7 +1645,7 @@
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1679,10 +1658,10 @@
     </row>
     <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>14</v>
@@ -1691,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>21</v>
@@ -1718,10 +1697,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -1733,13 +1712,13 @@
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D28" s="14">
         <v>3</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1752,7 +1731,7 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -1830,7 +1809,7 @@
     </row>
     <row r="35" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>26</v>
@@ -1842,13 +1821,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>21</v>
@@ -1869,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -1884,13 +1863,13 @@
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D37" s="14">
         <v>3</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -1903,7 +1882,7 @@
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -1981,7 +1960,7 @@
     </row>
     <row r="44" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>27</v>
@@ -1993,14 +1972,14 @@
         <v>1</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F44" s="14" t="str">
         <f>$F$35</f>
         <v>Email ID: ishaagraawal2000@gmail.com</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>21</v>
@@ -2021,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -2034,7 +2013,7 @@
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -2049,7 +2028,7 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -2062,10 +2041,10 @@
     </row>
     <row r="48" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>14</v>
@@ -2074,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>19</v>
@@ -2101,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
@@ -2114,7 +2093,7 @@
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -2129,7 +2108,7 @@
       <c r="A51" s="14"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -2141,48 +2120,24 @@
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="14">
-        <v>1</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="A52" s="14"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="14">
-        <v>2</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -2193,9 +2148,7 @@
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" t="s">
-        <v>64</v>
-      </c>
+      <c r="C54"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -2208,9 +2161,7 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="C55" s="8"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -2220,43 +2171,23 @@
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
     </row>
-    <row r="56" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="14">
-        <v>1</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>20</v>
-      </c>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C57" s="8"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -2267,21 +2198,14 @@
       <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C59" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="C58"/>
     </row>
     <row r="60" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>14</v>
@@ -2290,13 +2214,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>21</v>
@@ -2314,25 +2238,25 @@
         <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C63" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>14</v>
@@ -2341,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>21</v>
@@ -2364,25 +2288,25 @@
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C67" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>14</v>
@@ -2391,13 +2315,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>21</v>
@@ -2414,27 +2338,27 @@
         <v>2</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D70" s="14">
         <v>3</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C71" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
@@ -2470,9 +2394,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2640,19 +2567,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2676,9 +2599,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/shopizer_Signin_Page_Isha_Agrawal.xlsx
+++ b/shopizer_Signin_Page_Isha_Agrawal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Mini project\git track\Shopizer\Shopizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C170684A-FC89-4C5A-A6E5-338B3125FBD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17153F52-B301-4AA2-B5D6-6B5A9A8CCBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="253" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="95">
   <si>
     <t>Sc_id</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>User must be Signed in and navigated to the account's Dashboard</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1131,169 +1140,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="14"/>
-      <c r="C4" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="21"/>
+      <c r="C4" s="14"/>
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="22"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1301,14 +1319,14 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
-      <c r="C8" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1316,14 +1334,14 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1331,45 +1349,48 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14">
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1377,14 +1398,14 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
-      <c r="C12" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1392,14 +1413,14 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -1407,45 +1428,48 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="14">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="J14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="14"/>
       <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="8" t="s">
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -1456,14 +1480,14 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
-      <c r="C16" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1474,85 +1498,88 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" s="14"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="14">
+      <c r="E18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8" t="s">
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="14">
+      <c r="E19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
-      <c r="C20" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -1560,14 +1587,14 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -1575,64 +1602,67 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="14">
+      <c r="E22" s="14">
         <v>1</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="14"/>
       <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8" t="s">
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="14">
+      <c r="E23" s="14">
         <v>2</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
-      <c r="C24" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1640,14 +1670,14 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -1655,85 +1685,88 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="14">
+      <c r="E26" s="14">
         <v>1</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="F26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="G26" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="H26" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="J26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="14"/>
       <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8" t="s">
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="14">
+      <c r="E27" s="14">
         <v>2</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="F27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
-      <c r="C28" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="14">
+      <c r="E28" s="14">
         <v>3</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="F28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -1741,61 +1774,61 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -1806,85 +1839,88 @@
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="14">
+      <c r="E35" s="14">
         <v>1</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="G35" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="I35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="J35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="14"/>
       <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B36" s="14"/>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="14">
+      <c r="E36" s="14">
         <v>2</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="F36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="G36" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
-      <c r="C37" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="14">
+      <c r="E37" s="14">
         <v>3</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="F37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -1892,48 +1928,48 @@
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="14"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="14"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="14"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -1944,9 +1980,9 @@
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14"/>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -1957,65 +1993,68 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="C44" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="14">
+      <c r="E44" s="14">
         <v>1</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="F44" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="14" t="str">
-        <f>$F$35</f>
+      <c r="G44" s="14" t="str">
+        <f>$G$35</f>
         <v>Email ID: ishaagraawal2000@gmail.com</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="H44" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="I44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="J44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="14"/>
       <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="14"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="8" t="s">
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="14"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="14">
+      <c r="E45" s="14">
         <v>2</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="F45" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="14"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
-      <c r="C46" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
@@ -2023,14 +2062,14 @@
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="14"/>
+      <c r="D47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -2038,64 +2077,67 @@
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
+      <c r="L47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="C48" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="14">
+      <c r="E48" s="14">
         <v>1</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="F48" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="G48" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="H48" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="I48" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="J48" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="14"/>
       <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="14"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="14"/>
+      <c r="D49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="14">
+      <c r="E49" s="14">
         <v>2</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="F49" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="14"/>
+      <c r="L49" s="14"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
-      <c r="C50" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -2103,14 +2145,14 @@
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="14"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="8" t="s">
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B51" s="14"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
@@ -2118,12 +2160,12 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="14"/>
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="14"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -2131,262 +2173,204 @@
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K54" s="14"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="14"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C58"/>
-    </row>
-    <row r="60" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="8" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D57" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C61" s="8" t="s">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E59" s="1">
         <v>2</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C62" t="s">
+      <c r="F59" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C63" s="1" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="8" t="s">
+    <row r="62" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E62" s="14">
         <v>1</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="F62" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C65" s="8" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E63" s="14">
         <v>2</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
+      <c r="F63" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C67" s="1" t="s">
+      <c r="E64" s="14">
+        <v>3</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D65" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="14">
-        <v>1</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="14">
-        <v>2</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C70" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="14">
-        <v>3</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="30"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="30"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="30"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="30"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="30"/>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="30"/>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="30"/>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" display="Email=Robert@gmail.com" xr:uid="{1BBBD435-225C-4ABD-AD4E-D676A708C95D}"/>
+    <hyperlink ref="G26" r:id="rId1" display="Email=Robert@gmail.com" xr:uid="{1BBBD435-225C-4ABD-AD4E-D676A708C95D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
@@ -2394,12 +2378,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2567,15 +2548,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2599,10 +2584,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/shopizer_Signin_Page_Isha_Agrawal.xlsx
+++ b/shopizer_Signin_Page_Isha_Agrawal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Mini project\git track\Shopizer\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C170684A-FC89-4C5A-A6E5-338B3125FBD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEB94DC-F12F-46C8-8AB9-6F0C355899F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="253" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,12 +172,6 @@
     <t>Enter the password in the password field</t>
   </si>
   <si>
-    <t>SC_01_TC_14</t>
-  </si>
-  <si>
-    <t>SC_01_TC_15</t>
-  </si>
-  <si>
     <t>Check the Sign in functionality</t>
   </si>
   <si>
@@ -311,6 +305,12 @@
   </si>
   <si>
     <t>User must be Signed in and navigated to the account's Dashboard</t>
+  </si>
+  <si>
+    <t>SC_01_TC_11</t>
+  </si>
+  <si>
+    <t>SC_01_TC_12</t>
   </si>
 </sst>
 </file>
@@ -885,10 +885,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>24</v>
@@ -921,10 +921,10 @@
       <c r="B5" s="6"/>
       <c r="C5" s="14"/>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -942,7 +942,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -950,7 +950,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="15"/>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
       <c r="C11" s="26"/>
       <c r="D11" s="8"/>
       <c r="E11" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -986,7 +986,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="8"/>
       <c r="E12" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -995,7 +995,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1004,7 +1004,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1013,7 +1013,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
       <c r="E15" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1022,7 +1022,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
       <c r="E16" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1131,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>19</v>
@@ -1232,7 +1232,7 @@
       <c r="A4" s="21"/>
       <c r="B4" s="14"/>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1246,7 +1246,7 @@
       <c r="A5" s="22"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1276,7 +1276,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>21</v>
@@ -1306,7 +1306,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1321,7 +1321,7 @@
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1352,7 +1352,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>21</v>
@@ -1382,7 +1382,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1397,7 +1397,7 @@
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1413,7 +1413,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>14</v>
@@ -1422,13 +1422,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>21</v>
@@ -1461,7 +1461,7 @@
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1479,7 +1479,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1507,16 +1507,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>42</v>
@@ -1550,7 +1550,7 @@
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1565,7 +1565,7 @@
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1581,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>14</v>
@@ -1590,13 +1590,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>21</v>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -1630,7 +1630,7 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1645,7 +1645,7 @@
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1661,7 +1661,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>14</v>
@@ -1670,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>21</v>
@@ -1700,7 +1700,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -1712,13 +1712,13 @@
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="14">
         <v>3</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1731,7 +1731,7 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -1821,13 +1821,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>21</v>
@@ -1851,7 +1851,7 @@
         <v>38</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -1863,13 +1863,13 @@
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="14">
         <v>3</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -1882,7 +1882,7 @@
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -1972,14 +1972,14 @@
         <v>1</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F44" s="14" t="str">
         <f>$F$35</f>
         <v>Email ID: ishaagraawal2000@gmail.com</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>21</v>
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -2013,7 +2013,7 @@
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -2028,7 +2028,7 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -2044,7 +2044,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>14</v>
@@ -2053,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>19</v>
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
@@ -2093,7 +2093,7 @@
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -2108,7 +2108,7 @@
       <c r="A51" s="14"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -2119,270 +2119,189 @@
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
     </row>
-    <row r="52" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+    <row r="53" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="C54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="14"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C58"/>
-    </row>
-    <row r="60" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="C58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B61" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="14">
+        <v>2</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C62" t="s">
+      <c r="D63" s="14">
+        <v>3</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C64" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C63" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C67" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="14">
-        <v>1</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="14">
-        <v>2</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C70" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="14">
-        <v>3</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="30"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="30"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="30"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="30"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="30"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="30"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
